--- a/500all/speech_level/speeches_CHRG-114hhrg94349.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94349.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. The Subcommittee on Information Technology will come to order.    Without objection, the Chair is authorized to declare a recess at any time.    Good afternoon and welcome, everyone. I appreciate you all being here.    It is great to finally be here. This hearing has been rescheduled a number of times. Hopefully, this is the first of many hearings for this Subcommittee on Information Technology within Oversight and Government Reform.    As we all know, the Oversight Committee exists because of two fundamental principles. First, Americans have a right to know that the money Washington takes from them is well spent. Second, Americans deserve an efficient and effective government that works for them.    I thank all the members for being here this afternoon. I would especially like to thank the Ranking Member, Ms. Kelly, for her efforts on behalf of the committee thus far. It has been great working with you already and I am looking forward to the next year and a half.    As the Chairman of the IT Subcommittee, we are looking to do four things over this Congress. One of those issues we will look at is IT procurement and acquisition.    When I was running for Congress, I never thought I would be talking about IT procurement as much as I do but it is an important area where we can reduce the size and scope of the Federal Government.    The second area we will look at is emerging technologies. Our technology landscape is shifting and with emerging technologies such as drones, 3-D printing, these are all things that the government has not dealt in before.    We have to make sure that we are not stifling any growth in these areas, but are protecting consumers as well.    The third area we will look at is privacy. I know we will have a conversation today about this issue. When information is becoming increasingly accessible to folks and the masses, we need to make sure that we are protecting our information. We can protect our digital infrastructure and our civil liberties at the same time.    I am looking forward to delving into this topic over these next few months.    The fourth area we will talk about today is cybersecurity and information sharing. I think the Federal Government should be doing everything it can to share information with the private sector so that the private sector can protect itself.    I spent 9 years as an undercover officer in the CIA. My background is in computer science. I may be able to bang out some Fortran 77 code right now but it has been great having that experience and background and using it to help us as we chart our course forward.    I also helped build a cybersecurity company. One of the things we always tell our clients is that in this day and age, you have to begin with the presumption of breach. If you give me enough time and money, I am going to get in. What do you do to detect someone on your network? How can you contain them and then kick them out?    I think the conversation today is pretty timely with the recent attacks on Sony, Anthem, J.P. Morgan Chase and other big names. Just yesterday, we found out about 11 million customers who may have had their health records compromised in an attack on Blue Cross that occurred last May.    With each passing day and week, there is a new hack, a new breach or a theft being committed over the Internet. Because of this, we must encourage the sharing of cyber threat information to help deal with those breaches when they occur.    Having been on both the private side and the public side of this issue, I know that both sides are not communicating as well as they could be. I hope this committee can shed light on the growing problem and work with the authorizing committees and the appropriators on bringing forth beneficial cyber legislation.    The goal of today's hearing is to paint a picture of common threats, understand how the Federal Government can better engage with the private sector and get some suggestions and prescriptive measures that the Federal Government should take.    I want to thank everyone again for being here and participating today in this important hearing.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chairman. I too look forward to working with you over the next year and a half.    Thank you, Mr. Chairman, for holding this hearing on cybersecurity threats faced by the private sector. As you just said, the announcement of the attack against Blue Cross reminds us that no company is immune from cyber attacks and data breaches.    Sophisticated companies such as Sony, Home Depot, Target, Anthem and USIS were all targeted and breached by cyber attackers. The most recent attack against Anthem, one of the Nation's leading health insurers, resulted in an attack on up to 80 million personal records of customers and employees.    That attack is particularly disturbing because, as I pointed out in an article I wrote in Roll Call last month, medical identity theft represents a new norm in cyber crime. The real victims of cyber crime are the employees and customers whose sensitive personal information is stolen and used by cyber thieves in other crimes.    Cyber theft of social security numbers, birth dates and sensitive medical information puts individuals at heightened risk of crimes such as financial fraud and tax refund fraud.    Corporations collect and utilize a lot of personal information about their customers and employees. It is imperative that those businesses employ more effective means to safeguard it.    I look forward to hearing from today's witnesses about best practices they are recommending to help their members protect against cyber attacks and mitigate any damage from data breaches.    Today's hearing is also a recognition of the fact that the Federal Government and private sector must work more effectively together to thwart cyber crime.    I also look forward to hearing from today's witnesses about what government can do to help protect businesses and consumers from future cyber attacks and data breaches.    It is worth noting that the President recently issued a series of new initiatives to improve cyber security information sharing between the government and private sector to better assist in thwarting cyber attacks. I applaud him for that but Congress needs to do more.    Thank you again, Mr. Chairman. I yield the balance of my time.</t>
   </si>
   <si>
@@ -79,45 +73,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bejtlich</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bejtlich. Chairman Hurd, Ranking Member Kelly, members of the committee, thank you for the opportunity to testify.    I am Richard Bejtlich, Chief Security Strategist at FireEye. Today I will discuss digital threats, how to think about risk and some strategies to address these challenges.    Who is the threat? In our work, we have discovered and countered nation-State actors from China, Russia, Iran, North Korea, Syria, and other countries.    The Chinese and Russians tend to hack for commercial and geopolitical gain. The Iranians and North Koreans extend these activities to include disruption via denial of service and sabotage using destructive malware.    Activity from Syria relates to the regional civil war and sometimes affects Western news outlets and other victims. Eastern Europe continues to be a source of criminal operations, and we worry that the conflict between Ukraine and Russia will extend into the digital realm.    Threat attribution, or identifying responsibility for a breach, depends on the political stakes surrounding an incident.    For high-profile intrusions, such as those in the news over the last few months, attribution has been a priority. National technical means, law enforcement, and counter-intelligence can pierce anonymity. Some elements of the private sector have the right experience and evidence to assist with this process.    I would like to emphasize that attribution is possible, but it is a function of what is at stake.    Who is being breached? In March 2014, the Washington Post reported that in 2013, Federal agents, often the FBI, notified more than 3,000 U.S. companies that their computer systems had been hacked. This count represents clearly identified breach victims. Many were likely compromised more than once.    In the 18 or so years I have been doing this work, this to me is the single best statistic we have because these were not attacks, these were not near misses, these were actual, serious breaches that merited notification by law enforcement.    How do victims learn of a breach? Unfortunately, in 70 percent of cases, someone else, likely the FBI, tells a victim about a serious compromise. Only 30 percent of the time do victims identify intrusions on their own.    The median amount of time from when an intruder's initial compromise, to the time when a victim learns of a breach, according to our research, is currently 205 days. This number is better last year's research where the number was 229 days. Unfortunately, it means that, for nearly 7 months after gaining initial entry, intruders are free to roam within victim networks.    What are you supposed to do about this? I like to first think of defining the risk. In this hearing, we are thinking about the risk of intrusion to private companies in the United States, but there are many other risks we could talk about. That is the focus of this hearing.    Step two is to try to figure out some ways to measure progress. When I work with companies, I try to encourage them to think in terms of a couple metrics.    The first one is how many intrusions are occurring because there are many intrusions occurring in companies but not all of them rise to the level of somebody stealing your data or somebody destroying your data.    Second, they need to track the amount of time that elapses from when the intrusion first occurs and when they do something about it. We want to drive down both of those numbers.    Some things happen outside companies which impact the threat and the cost to the intrusion. Law enforcement and counter intelligence are the primary means by which you can mitigate the threat.    I did an editorial for Brookings recently called Target Malware Kingpins where I asked what makes more sense, expecting 2 billion Internet users to adequately secure their personal information or reducing the threat posed by the approximately 100 malware kingpins in the world?    Reducing the cost side of the equation takes a little more creativity. One step--I noticed it in the testimony of some of my fellow panelists--is tokenization of payment card data such that you are not dealing in credit cards when you are trying to authorize transactions.    A second step would be to drastically reduce or preferably eliminate the value of a Social Security number. With a Social Security number, as noted in the testimony in more detail by my colleagues, you can get credit reports and just an opening to much more damage.    In brief, at least from the perspective of a private company, we can win when we stop intruders from achieving their objectives. It is ideal to prevent an adversary from getting into your network but that goal is increasingly difficult.    Instead, we need to focus on quickly detecting the intrusion, containing the adversary and stopping him before he destroys, steals or whatever his mission is, as Chairman Hurd mentioned.    Finally, we must appreciate that the time to find and remove intruders is now. If you were to hire me to be your CSO, the first step I would take would be to hunt for intruders already in your network.    I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. Bejtlich.    The Chair now recognizes Mr. French.</t>
   </si>
   <si>
-    <t>French</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. French. Thank you for the opportunity to provide you with our views on cyber security threats facing the private sector as well as achievable solutions to better protect sensitive information.    Retailers are just one of the targets in an evolving and escalating war on our digital economy. Merchants collectively spend billions of dollars safeguarding sensitive customer information.    At the outset, let me State that data intrusion is a crime of a particularly international character. In virtually every reported incident, it seems as if the criminals are operating from abroad beyond the reach of U.S. law enforcement.    In all of the congressional scrutiny over data security, there has been a conspicuous lack of attention paid to strengthening our national ability to interdict and prosecute these criminals. We do not have specific recommendations in this area but it is an observation that this committee is uniquely well situated to conduct such an inquiry.    Beyond better law enforcement tools, my remarks center on three themes: better payment card security; effective breach notification and sharing of cyber threat information.    In our view, security alone is not the answer. The issue must be considered much more holistically. We must work together to prevent cyber attacks and help reduce fraud or other economic harm that may result when breaches occur.    Ultimately, we must make data less valuable. If breaches become less profitable to criminals, then criminals will dedicate fewer resources to committing them and our common data security goals will become much more achievable.    Cyber attacks are a fact of life in the United States. Virtually every network is at risk. In its 2014 data breach investigation report, Verizon determined that there were more than 63,000 data security incidents reported by industry, educational institutions and government entities in 2013. Of those, more than 1,300 had confirmed data losses. The financial industry suffered 34 percent of these and the retail industry had less than 11 percent.    I do not cite these figures to criticize our colleagues in the banking industry but merely to illustrate the fact that the incidents of data breaches are proportionate to the relative value of information that can be stolen.    It should not be surprising that three times more data breaches occur at financial institutions than at retailers. Criminals seek high value information and data thieves know that banks are most sensitive to financial and personal information, including not just card numbers but bank account numbers, Social Security numbers and other identified data that can be used to steal identities beyond completing some fraudulent transaction.    When it comes to payment card data, there is one single fact that banks and the card networks must acknowledge. All of the decisions about card design and security are theirs alone. Retailers did not forgo chip technology in the U.S. for almost two decades and we did not conceive of the complex, costly and largely ineffective payment card industry data security standards. We have to live with the downstream costs of these decisions every day.    Without fraud-prone payment card information and retailer systems, criminals would find the rest of the information retailers typically hold and that is benign data such as phone book information, shoe size or color preferences to be all that interesting or more importantly, lucrative on the black market.    That is why payment card security is essential and the adoption of a microchip in payment cards is a long overdue step in the right direction.    For retailers, however, the debate over card security comes down to a basic question about why the card networks and banks continue to rely on signature-based authentication methods rather than the proven security of a four digit personal identification number of pin.    Around the globe, most industrialized nations have adopted pin-based solutions. We know that pins provide an extra layer of security against downstream fraud, even if the card numbers are stolen in a breach.    In pin-based transactions, for example, the stored 16 digits from the card would alone be insufficient to conduct a fraudulent transaction in a store without the four digit pin which is known to the consumer and not present on the card itself. In short, the value of the pin is hard to question.    It is clear to retailers that simple business practices improvements like eliminating signature and adopting pin would be easier and more quickly implemented than any other steps. They hold the promise of being more effective in preventing the kind of financial harm that could impact consumers as companies suffer data security breaches affecting payment cards in the future.    NRF also commends the President's recent Executive Order which called for establishing cyber threat information sharing among non-critical infrastructure industries such as retail through what are called information sharing and analysis organizations, ISAOs.    The information sharing groups proposed appear similar to the Information Technology Security Council formed by NRF last year that currently shares cyber threat information among more than 170 information security professionals in retail.    More than 2,000 cyber threat alerts have been sent to our retail members since the inception of our program and we continue to expand its reach among the retail community.    Mr. Chairman, the remainder of my comments are in my written remarks. Thank you for the opportunity to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. French.    Mr. Nutkis?</t>
   </si>
   <si>
-    <t>Nutkis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nutkis. Good afternoon, Chairman Hurd and Ranking Member Kelly. It is a pleasure to join the subcommittee this afternoon to share HITRUST's perspective on the cyber threats facing the health care industry.    While I prepared my written Statement for the record, I would like to share with you a few key points.    Health Information Trust Alliance was formed in 2007 with the singular mission to streamline the safeguarding of sensitive information systems and devices in use within the health care system.    Our perspective on the evolving cyber security threats facing the health care industry is formed based on our deep engagement with industry around information protection. That engagement includes data from over 10,000 security assessments done in 2014 alone, leveraging the HITRUST CSF.    The HITRUST CSF is a scalable prescriptive and certifiable risk-based framework developed for and with the health care industry, incorporating relevant NIST, ISAO, PCI and other standards, supports various Federal and State regulations like HIPPA and HP300 in Texas, incorporates best practices and lessons learned including analysis of breached data, incorporates 135 security controls and 14 privacy controls. It was first released in 2008 and is currently on Version 7.    It should also be noted that we identified security controls relevant to cyber threats prior to the release of the NIST cyber security framework which is now fully mapped into the HITRUST CSF.    It should also be noted that approximately 85 percent adoption by hospitals and health plans make it the most widely adopted in the industry.    Also influencing our perspective is the HITRUST Cyber Threat Intelligence and Incident Coordination Center, C3, which is the most active cyber center in health care established in 2012. It is a federally recognized ISAO or information sharing and analysis organization.    It supports threat intelligence sharing and incident coordination for the health care industry. It includes threat sharing with the Department of Health and Human Services and Homeland Security. It has four key components.    The Cyber Threat XChange, CTX, was created to accelerate the sharing, distribution and consumption of threat indicators. It has been noted that the CTX is a revamp of a process that failed, in this case providing indicators of compromise in electronic consumer format such as STIX, TAXII and proprietary SIEM formats, streamlining the process of making information more consumable. We make that available free of charge.    The second component is something called Health Care CyberVision which was created to enhance awareness of unknown threats, provide early warning or a more perspective view into the unknown cyber threat environment which provides situational awareness by testing the effectiveness of security defenses against emerging and unknown threats.    The third component is something we call CyberRx which is in its second year, which is a series of cyber preparedness and response exercises to simulate cyber attacks on health care organizations. We expanded that significantly this year to include a much larger part of the industry.    The fourth component is our cyber monthly threat briefings. Every month, HITRUST, in conjunction with the Department of Health and Human Services hosts a cyber threat briefing to help raise awareness and educate the industry relating to cyber threats.    Our familiarity in engaging with industry affords us certain insights into cyber preparedness, risk management and cyber risk indicators that have the potential to impact privacy, disrupt facility operations or cause direct harm to patients.    We have information protection maturity in organization with over 400,000 organizations ranging from Fortune 15 to solo practitioners. We have a wide range of information security sophistication which significantly complicates the detection sharing and response of any solution or approach. More needs to be done to ensure we are addressing the real needs of the market.    Many organizations do not understand the cyber threats and risks relevant to their organization and spend unnecessary and limited resources in tracking down things that are not relevant.    We need to look more at high tech, low touch approaches to automate more of the process and make it more actionable for a wider range of organizations.    As to specific motives, many health care organizations are a treasure trove for threat actors. They store or process IP, EII, DII, DHI, financial information, medical information and much of it fully linked together. This makes the industry a high value target.    The other panelists already mentioned threat actors. It is a wide range of actors from nations, States to hackers of opportunity.    A health plan was most recently a target of choice given the magnitude and breadth of information they possess. Hospitals face unique threats given their position of providing care directly to patients and their position of procuring and implementing medical devices and new technologies in their infrastructure.    I do not make these Statements lightly with the intention of causing undue harm. As I said before, health care is a high value and target rich environment. We have come a long way but still have a long journey ahead of us.    With that, Mr. Chairman, I am pleased to answer the committee's questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you very much, Mr. Nutkis.    Mr. Johnson.</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Chairman Hurd, Ranking Member Kelly and members of the subcommittee, my name is Doug Johnson. I am Senior Vice President and Chief Advisor, Payments and Cybersecurity Policy at the American Bankers Association.    I really do appreciate the opportunity to be here today and discuss cyber security as well as representing the ABA. I am also the Vice Chairman of the Financial Services Sector Coordinating Council and on the board of the Financial Service Information Sharing and Analysis Center.    The Council has been in operation since 2002. The ISAC has been in operation since 1999. We are fairly mature in terms of our approach to these issues. I really do appreciate having the opportunity to provide the perspectives we have developed over the years.    As the 114th Congress engages in public debate on the important issue of cyber security, we share your concerns regarding the evolving nature of the threats. We certainly do support effective cyber security policy. We want to continue to work with Congress toward that.    I will focus on three main points: the evolving nature of cyber threats, the role of technology in addressing those threats and the role of expanded information sharing in protecting against the threats as well I think is very important.    One thing that is evidence is that attacks used to be very singular in focus, be it a denial of service attack against a financial institution, an attack against a merchant's point of sale device or maybe an attempt to destroy or wipe data of an energy company like Saudi ARAMCO.    I think what we see now is sort of blended attacks where these multifaceted attacks create particular challenges for us because essentially they necessitate a simultaneous maintenance of availability integrity and confidentiality of data where formerly a cyber security attack would maybe have the impact on one of those data components.    That creates some resource constraints in some instances when you are trying to respond to those incidents.    We are also seeing is attackers of every variety are becoming increasingly adept at defeating security practices. We have seen the velocity increase with which companies must move so they can ensure they understand how the cyber risks are changing and mitigating measures most effective against those risks. It is an arms race. Indeed, it really is an arms race.    Another increased challenge for institutions and the private sector--Mr. Nutkis alluded to this--is essentially the voluminous nature of the threat data which we have now. It is not as readily consumable as it could be.    Determining the relevance of a particular piece of threat data, analyzing the magnitude of the threat, evaluating which systems might be impacted and devising the appropriate course to take in mitigating against the threat is becoming increasingly difficult to accomplish. I will touch on that when we talk about information sharing.    Last, the victim of the attack is also changing. Prior to 2014, much of the private and public sector energy was focused on critical infrastructure and payments. I think what we have seen based on 2014 is a recognition that there is a broader motivation for attackers in conducting a cyber attack. Essentially any company in any sector could be subject to a significant and highly visible attack.    Technology obviously plays a significant role in protecting our Nation's companies and consumers. My written testimony spends a lot of time discussing that.    I would say two things we really focused on in the testimony was the necessity to get rid of static numbers in the environment. I think one of the things the President's Cyber Security Summit demonstrated was there was a lot of energy around having customers have to essentially remember things in digits and symbols to socially prove they are who they are, ways through biometrics and ways through tokenization and other ways to authenticate transactions.    Individuals are essentially going to be the mechanization by which I think we really can make a much greater impact on the fraud we are seeing today in the payments base and otherwise.    I do think from a technology standpoint, the other promising thing is STIX and TAXI which has also been discussed whereby we are developing a mechanism for even the smallest financial institution and the smallest health company to be able to consume data and spend more time analyzing that data as opposed to having to make a determination as to whether or not the data even has any meaning in their environment.    Those are my oral remarks. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. Johnson.    Mr. Mierzwinski, please.</t>
   </si>
   <si>
-    <t>Mierzwinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mierzwinski. Thank you, Mr. Chairman, Representative Kelly and members of the committee.    I am Ed Mierzwinski of the U.S. Public Interest Research Group.    In my oral remarks, I want to talk about some of the threats that consumers face from the large amount of their information that is floating around in cyber space and is often obtained by hackers and other people intent on doing evil.    I identify in my written testimony, three levels of breach. The first level is a simple card number breach. A card number breach results in what is called existing account fraud. It is a problem but consumers are generally well protected by law in the case of existing account fraud.    If, of course, your debit card is breached, you do have the additional problem of losing money from your bank account until the bank puts the money back in. That is why consumer advocates recommend the use of credit cards, if you can avoid credit card debt.    The second level of breach is a breach that also obtains email names, email addresses, telephone numbers, the sort of information that allows the bad guy to conduct what is called phishing expeditions to try to obtain additional information about you.    I should point out that after any big breach, it is not only the serious bad guy that got into your account that conducts phishing expeditions, it is anybody with an email list can then send mail out to people and say, hey, if you are a person who shopped at Target, we need your information.    They are not even the guy that has part of your information. They are just another bad guy hoping to capitalize on it. It is a serious problem.    The third level of breach is the one that results in the mother lode of information being collected that allows worse harm to directly be conducted against you. Phishing expeditions are designed to collect your Social Security number but the Anthem breach and now the Premera breach resulted in the breach of Social Security numbers which can be used to easily to commit financial identity theft which is a problem that has been around for 20 years.    The additional problem of tax refund identity theft has been around fewer years but is something worthy of the committee's further review and another hearing probably.    Third is medical identity theft where bad guys get medical attention in your name because they take advantage of your good medical insurance to get their own medical treatment.    The fourth kind of problem many consumers have faced over the years--I have talked to Secret Service agents about this--is a bad guy with the bad name wants to use your name to commit crime because you might not be in the system, you do not have two strikes against you already.    There are also emotional and other problems that people face from identity theft.    What can consumers do? Often companies recommend credit monitoring. In the Anthem and Premera breaches, I say take the credit monitoring. In an existing account breach, it does not help. It will not stop identity theft. It is a sop, something that will cause you to think you are better protected than you actually are.    We recommend any consumer who is not directly in the market for new credit to get a security freeze. My testimony goes into detail on how the security freeze is really the only way to protect your credit report.    We recommend to Congress, as committees of jurisdiction can consider legislation, do not preempt the States. The States are privacy leaders. Do not impose any sort of harm trigger in any breach legislation. Use an acquisition trigger.    If a company loses your information, it should not have the right to decide whether to tell you. It should have its own reputation at risk. Use a broad definition of personally identifiable information in any legislation that goes forward.    Most of the bills that I have seen are narrower than State laws. The Attorney General of Illinois has just proposed amendments to their State law, for example, that add geo-locational and marketing information to the definition of personal information.    Information is no longer just tracked in computers but tracked on your smart phone. Geo-location is very important.    As Mr. French talked about, we totally agree with the merchant's technology neutral performance standard. Chip and pin is the highest current standard. Why are the banks stopping at chip and signature? It is illogical.    Apple Pay and tokenization have some hope but Apple Pay has been breached in low tech ways, so a lot more needs to be done there.    My testimony concludes by going into some detail on the general ecosystem we have today that simply collects too much information and keeps it for too long. Consumers need privacy rights based on a robust of code fair information practices.    Thank you for the opportunity to testify.</t>
   </si>
   <si>
@@ -127,9 +106,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    This is a lot of information to process. It is very studious work on your parts. I appreciate that.    I have two or three things I want to address. Mr. Nutkis, let me start with you.    I have a lot of family in the health care industry. More and more that is becoming technological. Concerns and challenges facing this industry when addressing cyber threats is that something that has come across the table as far as discussion?    I want to know what you are hearing on this and how you would address it? Is it a problem that you are hearing or facing in the medical community?</t>
   </si>
   <si>
@@ -211,9 +187,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    I would like to turn the discussion toward the concept of data minimization and data reduction as a security measure.    Mr. Bejtlich, could you speak a bit to this principle? Do you think that as a practice, if businesses adopted data minimization, would this type of security measure be more effective in mitigating the damage from a breach?</t>
   </si>
   <si>
@@ -245,9 +218,6 @@
   </si>
   <si>
     <t>400090</t>
-  </si>
-  <si>
-    <t>Elijah E. Cummings</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cummings. Mr. Chairman, I will be brief because I know you want to get to your questions.    First of all, I want to welcome you to your chairmanship and to the committee. I want to thank our Ranking Member. Congratulations to both of you.    The issue of cyber security has been one which I have been trying to raise before this committee for years. I give credit to you and Chairman Chaffetz for addressing it now because it is so very, very important.    I have a lot of questions but I want to let the Chairman ask his questions.    I sit on the Naval Academy Board of Trustees and Board of Visitors. We understand that cyber security is so very important. We have done a lot to make sure that all of our midshipmen are exposed to cyber security education.    Do you think that we are preparing our Nation and our young people and the troops to be able to effectively deal with this very, very serious threat to our way of life, to our existence?    Right now, we are dealing with the Secret Service. You see situations where people say we are prepared but when it comes time for the rubber to meet the road, you discover there is no road.    I am wondering how you all feel about our colleges, universities and other institutions? Are we where we need to be to effectively deal with this serious problem?</t>
@@ -709,11 +679,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -735,11 +703,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -759,13 +725,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -787,11 +751,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -813,11 +775,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -837,13 +797,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -865,11 +823,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -889,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -917,11 +871,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -941,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -969,11 +919,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -993,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1021,11 +967,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1045,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1073,11 +1015,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1097,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1123,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1149,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1175,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1201,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1227,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1253,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1279,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1305,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1331,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1357,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1383,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1409,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1435,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1461,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1489,11 +1399,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1513,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1539,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1565,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1591,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1617,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1643,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1669,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1695,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1721,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1749,11 +1639,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1773,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1799,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1825,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1851,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1877,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1903,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1929,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1955,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1981,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
         <v>65</v>
-      </c>
-      <c r="H51" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2009,11 +1879,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2033,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" t="s">
-        <v>77</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2059,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2085,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2113,11 +1975,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2137,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2165,11 +2023,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2189,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2215,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2243,11 +2095,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2267,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2295,11 +2143,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2319,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2347,11 +2191,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2371,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2399,11 +2239,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2423,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2451,11 +2287,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2475,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2501,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2527,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2555,11 +2383,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94349.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94349.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412654</t>
   </si>
   <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurd. The Subcommittee on Information Technology will come to order.    Without objection, the Chair is authorized to declare a recess at any time.    Good afternoon and welcome, everyone. I appreciate you all being here.    It is great to finally be here. This hearing has been rescheduled a number of times. Hopefully, this is the first of many hearings for this Subcommittee on Information Technology within Oversight and Government Reform.    As we all know, the Oversight Committee exists because of two fundamental principles. First, Americans have a right to know that the money Washington takes from them is well spent. Second, Americans deserve an efficient and effective government that works for them.    I thank all the members for being here this afternoon. I would especially like to thank the Ranking Member, Ms. Kelly, for her efforts on behalf of the committee thus far. It has been great working with you already and I am looking forward to the next year and a half.    As the Chairman of the IT Subcommittee, we are looking to do four things over this Congress. One of those issues we will look at is IT procurement and acquisition.    When I was running for Congress, I never thought I would be talking about IT procurement as much as I do but it is an important area where we can reduce the size and scope of the Federal Government.    The second area we will look at is emerging technologies. Our technology landscape is shifting and with emerging technologies such as drones, 3-D printing, these are all things that the government has not dealt in before.    We have to make sure that we are not stifling any growth in these areas, but are protecting consumers as well.    The third area we will look at is privacy. I know we will have a conversation today about this issue. When information is becoming increasingly accessible to folks and the masses, we need to make sure that we are protecting our information. We can protect our digital infrastructure and our civil liberties at the same time.    I am looking forward to delving into this topic over these next few months.    The fourth area we will talk about today is cybersecurity and information sharing. I think the Federal Government should be doing everything it can to share information with the private sector so that the private sector can protect itself.    I spent 9 years as an undercover officer in the CIA. My background is in computer science. I may be able to bang out some Fortran 77 code right now but it has been great having that experience and background and using it to help us as we chart our course forward.    I also helped build a cybersecurity company. One of the things we always tell our clients is that in this day and age, you have to begin with the presumption of breach. If you give me enough time and money, I am going to get in. What do you do to detect someone on your network? How can you contain them and then kick them out?    I think the conversation today is pretty timely with the recent attacks on Sony, Anthem, J.P. Morgan Chase and other big names. Just yesterday, we found out about 11 million customers who may have had their health records compromised in an attack on Blue Cross that occurred last May.    With each passing day and week, there is a new hack, a new breach or a theft being committed over the Internet. Because of this, we must encourage the sharing of cyber threat information to help deal with those breaches when they occur.    Having been on both the private side and the public side of this issue, I know that both sides are not communicating as well as they could be. I hope this committee can shed light on the growing problem and work with the authorizing committees and the appropriators on bringing forth beneficial cyber legislation.    The goal of today's hearing is to paint a picture of common threats, understand how the Federal Government can better engage with the private sector and get some suggestions and prescriptive measures that the Federal Government should take.    I want to thank everyone again for being here and participating today in this important hearing.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412595</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chairman. I too look forward to working with you over the next year and a half.    Thank you, Mr. Chairman, for holding this hearing on cybersecurity threats faced by the private sector. As you just said, the announcement of the attack against Blue Cross reminds us that no company is immune from cyber attacks and data breaches.    Sophisticated companies such as Sony, Home Depot, Target, Anthem and USIS were all targeted and breached by cyber attackers. The most recent attack against Anthem, one of the Nation's leading health insurers, resulted in an attack on up to 80 million personal records of customers and employees.    That attack is particularly disturbing because, as I pointed out in an article I wrote in Roll Call last month, medical identity theft represents a new norm in cyber crime. The real victims of cyber crime are the employees and customers whose sensitive personal information is stolen and used by cyber thieves in other crimes.    Cyber theft of social security numbers, birth dates and sensitive medical information puts individuals at heightened risk of crimes such as financial fraud and tax refund fraud.    Corporations collect and utilize a lot of personal information about their customers and employees. It is imperative that those businesses employ more effective means to safeguard it.    I look forward to hearing from today's witnesses about best practices they are recommending to help their members protect against cyber attacks and mitigate any damage from data breaches.    Today's hearing is also a recognition of the fact that the Federal Government and private sector must work more effectively together to thwart cyber crime.    I also look forward to hearing from today's witnesses about what government can do to help protect businesses and consumers from future cyber attacks and data breaches.    It is worth noting that the President recently issued a series of new initiatives to improve cyber security information sharing between the government and private sector to better assist in thwarting cyber attacks. I applaud him for that but Congress needs to do more.    Thank you again, Mr. Chairman. I yield the balance of my time.</t>
   </si>
   <si>
@@ -73,30 +88,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Bejtlich</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bejtlich. Chairman Hurd, Ranking Member Kelly, members of the committee, thank you for the opportunity to testify.    I am Richard Bejtlich, Chief Security Strategist at FireEye. Today I will discuss digital threats, how to think about risk and some strategies to address these challenges.    Who is the threat? In our work, we have discovered and countered nation-State actors from China, Russia, Iran, North Korea, Syria, and other countries.    The Chinese and Russians tend to hack for commercial and geopolitical gain. The Iranians and North Koreans extend these activities to include disruption via denial of service and sabotage using destructive malware.    Activity from Syria relates to the regional civil war and sometimes affects Western news outlets and other victims. Eastern Europe continues to be a source of criminal operations, and we worry that the conflict between Ukraine and Russia will extend into the digital realm.    Threat attribution, or identifying responsibility for a breach, depends on the political stakes surrounding an incident.    For high-profile intrusions, such as those in the news over the last few months, attribution has been a priority. National technical means, law enforcement, and counter-intelligence can pierce anonymity. Some elements of the private sector have the right experience and evidence to assist with this process.    I would like to emphasize that attribution is possible, but it is a function of what is at stake.    Who is being breached? In March 2014, the Washington Post reported that in 2013, Federal agents, often the FBI, notified more than 3,000 U.S. companies that their computer systems had been hacked. This count represents clearly identified breach victims. Many were likely compromised more than once.    In the 18 or so years I have been doing this work, this to me is the single best statistic we have because these were not attacks, these were not near misses, these were actual, serious breaches that merited notification by law enforcement.    How do victims learn of a breach? Unfortunately, in 70 percent of cases, someone else, likely the FBI, tells a victim about a serious compromise. Only 30 percent of the time do victims identify intrusions on their own.    The median amount of time from when an intruder's initial compromise, to the time when a victim learns of a breach, according to our research, is currently 205 days. This number is better last year's research where the number was 229 days. Unfortunately, it means that, for nearly 7 months after gaining initial entry, intruders are free to roam within victim networks.    What are you supposed to do about this? I like to first think of defining the risk. In this hearing, we are thinking about the risk of intrusion to private companies in the United States, but there are many other risks we could talk about. That is the focus of this hearing.    Step two is to try to figure out some ways to measure progress. When I work with companies, I try to encourage them to think in terms of a couple metrics.    The first one is how many intrusions are occurring because there are many intrusions occurring in companies but not all of them rise to the level of somebody stealing your data or somebody destroying your data.    Second, they need to track the amount of time that elapses from when the intrusion first occurs and when they do something about it. We want to drive down both of those numbers.    Some things happen outside companies which impact the threat and the cost to the intrusion. Law enforcement and counter intelligence are the primary means by which you can mitigate the threat.    I did an editorial for Brookings recently called Target Malware Kingpins where I asked what makes more sense, expecting 2 billion Internet users to adequately secure their personal information or reducing the threat posed by the approximately 100 malware kingpins in the world?    Reducing the cost side of the equation takes a little more creativity. One step--I noticed it in the testimony of some of my fellow panelists--is tokenization of payment card data such that you are not dealing in credit cards when you are trying to authorize transactions.    A second step would be to drastically reduce or preferably eliminate the value of a Social Security number. With a Social Security number, as noted in the testimony in more detail by my colleagues, you can get credit reports and just an opening to much more damage.    In brief, at least from the perspective of a private company, we can win when we stop intruders from achieving their objectives. It is ideal to prevent an adversary from getting into your network but that goal is increasingly difficult.    Instead, we need to focus on quickly detecting the intrusion, containing the adversary and stopping him before he destroys, steals or whatever his mission is, as Chairman Hurd mentioned.    Finally, we must appreciate that the time to find and remove intruders is now. If you were to hire me to be your CSO, the first step I would take would be to hunt for intruders already in your network.    I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. Bejtlich.    The Chair now recognizes Mr. French.</t>
   </si>
   <si>
+    <t>French</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. French. Thank you for the opportunity to provide you with our views on cyber security threats facing the private sector as well as achievable solutions to better protect sensitive information.    Retailers are just one of the targets in an evolving and escalating war on our digital economy. Merchants collectively spend billions of dollars safeguarding sensitive customer information.    At the outset, let me State that data intrusion is a crime of a particularly international character. In virtually every reported incident, it seems as if the criminals are operating from abroad beyond the reach of U.S. law enforcement.    In all of the congressional scrutiny over data security, there has been a conspicuous lack of attention paid to strengthening our national ability to interdict and prosecute these criminals. We do not have specific recommendations in this area but it is an observation that this committee is uniquely well situated to conduct such an inquiry.    Beyond better law enforcement tools, my remarks center on three themes: better payment card security; effective breach notification and sharing of cyber threat information.    In our view, security alone is not the answer. The issue must be considered much more holistically. We must work together to prevent cyber attacks and help reduce fraud or other economic harm that may result when breaches occur.    Ultimately, we must make data less valuable. If breaches become less profitable to criminals, then criminals will dedicate fewer resources to committing them and our common data security goals will become much more achievable.    Cyber attacks are a fact of life in the United States. Virtually every network is at risk. In its 2014 data breach investigation report, Verizon determined that there were more than 63,000 data security incidents reported by industry, educational institutions and government entities in 2013. Of those, more than 1,300 had confirmed data losses. The financial industry suffered 34 percent of these and the retail industry had less than 11 percent.    I do not cite these figures to criticize our colleagues in the banking industry but merely to illustrate the fact that the incidents of data breaches are proportionate to the relative value of information that can be stolen.    It should not be surprising that three times more data breaches occur at financial institutions than at retailers. Criminals seek high value information and data thieves know that banks are most sensitive to financial and personal information, including not just card numbers but bank account numbers, Social Security numbers and other identified data that can be used to steal identities beyond completing some fraudulent transaction.    When it comes to payment card data, there is one single fact that banks and the card networks must acknowledge. All of the decisions about card design and security are theirs alone. Retailers did not forgo chip technology in the U.S. for almost two decades and we did not conceive of the complex, costly and largely ineffective payment card industry data security standards. We have to live with the downstream costs of these decisions every day.    Without fraud-prone payment card information and retailer systems, criminals would find the rest of the information retailers typically hold and that is benign data such as phone book information, shoe size or color preferences to be all that interesting or more importantly, lucrative on the black market.    That is why payment card security is essential and the adoption of a microchip in payment cards is a long overdue step in the right direction.    For retailers, however, the debate over card security comes down to a basic question about why the card networks and banks continue to rely on signature-based authentication methods rather than the proven security of a four digit personal identification number of pin.    Around the globe, most industrialized nations have adopted pin-based solutions. We know that pins provide an extra layer of security against downstream fraud, even if the card numbers are stolen in a breach.    In pin-based transactions, for example, the stored 16 digits from the card would alone be insufficient to conduct a fraudulent transaction in a store without the four digit pin which is known to the consumer and not present on the card itself. In short, the value of the pin is hard to question.    It is clear to retailers that simple business practices improvements like eliminating signature and adopting pin would be easier and more quickly implemented than any other steps. They hold the promise of being more effective in preventing the kind of financial harm that could impact consumers as companies suffer data security breaches affecting payment cards in the future.    NRF also commends the President's recent Executive Order which called for establishing cyber threat information sharing among non-critical infrastructure industries such as retail through what are called information sharing and analysis organizations, ISAOs.    The information sharing groups proposed appear similar to the Information Technology Security Council formed by NRF last year that currently shares cyber threat information among more than 170 information security professionals in retail.    More than 2,000 cyber threat alerts have been sent to our retail members since the inception of our program and we continue to expand its reach among the retail community.    Mr. Chairman, the remainder of my comments are in my written remarks. Thank you for the opportunity to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. French.    Mr. Nutkis?</t>
   </si>
   <si>
+    <t>Nutkis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nutkis. Good afternoon, Chairman Hurd and Ranking Member Kelly. It is a pleasure to join the subcommittee this afternoon to share HITRUST's perspective on the cyber threats facing the health care industry.    While I prepared my written Statement for the record, I would like to share with you a few key points.    Health Information Trust Alliance was formed in 2007 with the singular mission to streamline the safeguarding of sensitive information systems and devices in use within the health care system.    Our perspective on the evolving cyber security threats facing the health care industry is formed based on our deep engagement with industry around information protection. That engagement includes data from over 10,000 security assessments done in 2014 alone, leveraging the HITRUST CSF.    The HITRUST CSF is a scalable prescriptive and certifiable risk-based framework developed for and with the health care industry, incorporating relevant NIST, ISAO, PCI and other standards, supports various Federal and State regulations like HIPPA and HP300 in Texas, incorporates best practices and lessons learned including analysis of breached data, incorporates 135 security controls and 14 privacy controls. It was first released in 2008 and is currently on Version 7.    It should also be noted that we identified security controls relevant to cyber threats prior to the release of the NIST cyber security framework which is now fully mapped into the HITRUST CSF.    It should also be noted that approximately 85 percent adoption by hospitals and health plans make it the most widely adopted in the industry.    Also influencing our perspective is the HITRUST Cyber Threat Intelligence and Incident Coordination Center, C3, which is the most active cyber center in health care established in 2012. It is a federally recognized ISAO or information sharing and analysis organization.    It supports threat intelligence sharing and incident coordination for the health care industry. It includes threat sharing with the Department of Health and Human Services and Homeland Security. It has four key components.    The Cyber Threat XChange, CTX, was created to accelerate the sharing, distribution and consumption of threat indicators. It has been noted that the CTX is a revamp of a process that failed, in this case providing indicators of compromise in electronic consumer format such as STIX, TAXII and proprietary SIEM formats, streamlining the process of making information more consumable. We make that available free of charge.    The second component is something called Health Care CyberVision which was created to enhance awareness of unknown threats, provide early warning or a more perspective view into the unknown cyber threat environment which provides situational awareness by testing the effectiveness of security defenses against emerging and unknown threats.    The third component is something we call CyberRx which is in its second year, which is a series of cyber preparedness and response exercises to simulate cyber attacks on health care organizations. We expanded that significantly this year to include a much larger part of the industry.    The fourth component is our cyber monthly threat briefings. Every month, HITRUST, in conjunction with the Department of Health and Human Services hosts a cyber threat briefing to help raise awareness and educate the industry relating to cyber threats.    Our familiarity in engaging with industry affords us certain insights into cyber preparedness, risk management and cyber risk indicators that have the potential to impact privacy, disrupt facility operations or cause direct harm to patients.    We have information protection maturity in organization with over 400,000 organizations ranging from Fortune 15 to solo practitioners. We have a wide range of information security sophistication which significantly complicates the detection sharing and response of any solution or approach. More needs to be done to ensure we are addressing the real needs of the market.    Many organizations do not understand the cyber threats and risks relevant to their organization and spend unnecessary and limited resources in tracking down things that are not relevant.    We need to look more at high tech, low touch approaches to automate more of the process and make it more actionable for a wider range of organizations.    As to specific motives, many health care organizations are a treasure trove for threat actors. They store or process IP, EII, DII, DHI, financial information, medical information and much of it fully linked together. This makes the industry a high value target.    The other panelists already mentioned threat actors. It is a wide range of actors from nations, States to hackers of opportunity.    A health plan was most recently a target of choice given the magnitude and breadth of information they possess. Hospitals face unique threats given their position of providing care directly to patients and their position of procuring and implementing medical devices and new technologies in their infrastructure.    I do not make these Statements lightly with the intention of causing undue harm. As I said before, health care is a high value and target rich environment. We have come a long way but still have a long journey ahead of us.    With that, Mr. Chairman, I am pleased to answer the committee's questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you very much, Mr. Nutkis.    Mr. Johnson.</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Chairman Hurd, Ranking Member Kelly and members of the subcommittee, my name is Doug Johnson. I am Senior Vice President and Chief Advisor, Payments and Cybersecurity Policy at the American Bankers Association.    I really do appreciate the opportunity to be here today and discuss cyber security as well as representing the ABA. I am also the Vice Chairman of the Financial Services Sector Coordinating Council and on the board of the Financial Service Information Sharing and Analysis Center.    The Council has been in operation since 2002. The ISAC has been in operation since 1999. We are fairly mature in terms of our approach to these issues. I really do appreciate having the opportunity to provide the perspectives we have developed over the years.    As the 114th Congress engages in public debate on the important issue of cyber security, we share your concerns regarding the evolving nature of the threats. We certainly do support effective cyber security policy. We want to continue to work with Congress toward that.    I will focus on three main points: the evolving nature of cyber threats, the role of technology in addressing those threats and the role of expanded information sharing in protecting against the threats as well I think is very important.    One thing that is evidence is that attacks used to be very singular in focus, be it a denial of service attack against a financial institution, an attack against a merchant's point of sale device or maybe an attempt to destroy or wipe data of an energy company like Saudi ARAMCO.    I think what we see now is sort of blended attacks where these multifaceted attacks create particular challenges for us because essentially they necessitate a simultaneous maintenance of availability integrity and confidentiality of data where formerly a cyber security attack would maybe have the impact on one of those data components.    That creates some resource constraints in some instances when you are trying to respond to those incidents.    We are also seeing is attackers of every variety are becoming increasingly adept at defeating security practices. We have seen the velocity increase with which companies must move so they can ensure they understand how the cyber risks are changing and mitigating measures most effective against those risks. It is an arms race. Indeed, it really is an arms race.    Another increased challenge for institutions and the private sector--Mr. Nutkis alluded to this--is essentially the voluminous nature of the threat data which we have now. It is not as readily consumable as it could be.    Determining the relevance of a particular piece of threat data, analyzing the magnitude of the threat, evaluating which systems might be impacted and devising the appropriate course to take in mitigating against the threat is becoming increasingly difficult to accomplish. I will touch on that when we talk about information sharing.    Last, the victim of the attack is also changing. Prior to 2014, much of the private and public sector energy was focused on critical infrastructure and payments. I think what we have seen based on 2014 is a recognition that there is a broader motivation for attackers in conducting a cyber attack. Essentially any company in any sector could be subject to a significant and highly visible attack.    Technology obviously plays a significant role in protecting our Nation's companies and consumers. My written testimony spends a lot of time discussing that.    I would say two things we really focused on in the testimony was the necessity to get rid of static numbers in the environment. I think one of the things the President's Cyber Security Summit demonstrated was there was a lot of energy around having customers have to essentially remember things in digits and symbols to socially prove they are who they are, ways through biometrics and ways through tokenization and other ways to authenticate transactions.    Individuals are essentially going to be the mechanization by which I think we really can make a much greater impact on the fraud we are seeing today in the payments base and otherwise.    I do think from a technology standpoint, the other promising thing is STIX and TAXI which has also been discussed whereby we are developing a mechanism for even the smallest financial institution and the smallest health company to be able to consume data and spend more time analyzing that data as opposed to having to make a determination as to whether or not the data even has any meaning in their environment.    Those are my oral remarks. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. Johnson.    Mr. Mierzwinski, please.</t>
   </si>
   <si>
+    <t>Mierzwinski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mierzwinski. Thank you, Mr. Chairman, Representative Kelly and members of the committee.    I am Ed Mierzwinski of the U.S. Public Interest Research Group.    In my oral remarks, I want to talk about some of the threats that consumers face from the large amount of their information that is floating around in cyber space and is often obtained by hackers and other people intent on doing evil.    I identify in my written testimony, three levels of breach. The first level is a simple card number breach. A card number breach results in what is called existing account fraud. It is a problem but consumers are generally well protected by law in the case of existing account fraud.    If, of course, your debit card is breached, you do have the additional problem of losing money from your bank account until the bank puts the money back in. That is why consumer advocates recommend the use of credit cards, if you can avoid credit card debt.    The second level of breach is a breach that also obtains email names, email addresses, telephone numbers, the sort of information that allows the bad guy to conduct what is called phishing expeditions to try to obtain additional information about you.    I should point out that after any big breach, it is not only the serious bad guy that got into your account that conducts phishing expeditions, it is anybody with an email list can then send mail out to people and say, hey, if you are a person who shopped at Target, we need your information.    They are not even the guy that has part of your information. They are just another bad guy hoping to capitalize on it. It is a serious problem.    The third level of breach is the one that results in the mother lode of information being collected that allows worse harm to directly be conducted against you. Phishing expeditions are designed to collect your Social Security number but the Anthem breach and now the Premera breach resulted in the breach of Social Security numbers which can be used to easily to commit financial identity theft which is a problem that has been around for 20 years.    The additional problem of tax refund identity theft has been around fewer years but is something worthy of the committee's further review and another hearing probably.    Third is medical identity theft where bad guys get medical attention in your name because they take advantage of your good medical insurance to get their own medical treatment.    The fourth kind of problem many consumers have faced over the years--I have talked to Secret Service agents about this--is a bad guy with the bad name wants to use your name to commit crime because you might not be in the system, you do not have two strikes against you already.    There are also emotional and other problems that people face from identity theft.    What can consumers do? Often companies recommend credit monitoring. In the Anthem and Premera breaches, I say take the credit monitoring. In an existing account breach, it does not help. It will not stop identity theft. It is a sop, something that will cause you to think you are better protected than you actually are.    We recommend any consumer who is not directly in the market for new credit to get a security freeze. My testimony goes into detail on how the security freeze is really the only way to protect your credit report.    We recommend to Congress, as committees of jurisdiction can consider legislation, do not preempt the States. The States are privacy leaders. Do not impose any sort of harm trigger in any breach legislation. Use an acquisition trigger.    If a company loses your information, it should not have the right to decide whether to tell you. It should have its own reputation at risk. Use a broad definition of personally identifiable information in any legislation that goes forward.    Most of the bills that I have seen are narrower than State laws. The Attorney General of Illinois has just proposed amendments to their State law, for example, that add geo-locational and marketing information to the definition of personal information.    Information is no longer just tracked in computers but tracked on your smart phone. Geo-location is very important.    As Mr. French talked about, we totally agree with the merchant's technology neutral performance standard. Chip and pin is the highest current standard. Why are the banks stopping at chip and signature? It is illogical.    Apple Pay and tokenization have some hope but Apple Pay has been breached in low tech ways, so a lot more needs to be done there.    My testimony concludes by going into some detail on the general ecosystem we have today that simply collects too much information and keeps it for too long. Consumers need privacy rights based on a robust of code fair information practices.    Thank you for the opportunity to testify.</t>
   </si>
   <si>
@@ -106,6 +136,12 @@
     <t>412670</t>
   </si>
   <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    This is a lot of information to process. It is very studious work on your parts. I appreciate that.    I have two or three things I want to address. Mr. Nutkis, let me start with you.    I have a lot of family in the health care industry. More and more that is becoming technological. Concerns and challenges facing this industry when addressing cyber threats is that something that has come across the table as far as discussion?    I want to know what you are hearing on this and how you would address it? Is it a problem that you are hearing or facing in the medical community?</t>
   </si>
   <si>
@@ -187,6 +223,12 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    I would like to turn the discussion toward the concept of data minimization and data reduction as a security measure.    Mr. Bejtlich, could you speak a bit to this principle? Do you think that as a practice, if businesses adopted data minimization, would this type of security measure be more effective in mitigating the damage from a breach?</t>
   </si>
   <si>
@@ -218,6 +260,12 @@
   </si>
   <si>
     <t>400090</t>
+  </si>
+  <si>
+    <t>Cummings</t>
+  </si>
+  <si>
+    <t>Elijah</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cummings. Mr. Chairman, I will be brief because I know you want to get to your questions.    First of all, I want to welcome you to your chairmanship and to the committee. I want to thank our Ranking Member. Congratulations to both of you.    The issue of cyber security has been one which I have been trying to raise before this committee for years. I give credit to you and Chairman Chaffetz for addressing it now because it is so very, very important.    I have a lot of questions but I want to let the Chairman ask his questions.    I sit on the Naval Academy Board of Trustees and Board of Visitors. We understand that cyber security is so very important. We have done a lot to make sure that all of our midshipmen are exposed to cyber security education.    Do you think that we are preparing our Nation and our young people and the troops to be able to effectively deal with this very, very serious threat to our way of life, to our existence?    Right now, we are dealing with the Secret Service. You see situations where people say we are prepared but when it comes time for the rubber to meet the road, you discover there is no road.    I am wondering how you all feel about our colleges, universities and other institutions? Are we where we need to be to effectively deal with this serious problem?</t>
@@ -629,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +685,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,1733 +707,2038 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
+        <v>82</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94349.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94349.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412654</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Hurd</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
   </si>
   <si>
     <t>400090</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Cummings</t>
@@ -677,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +694,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,2035 +719,2196 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
